--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>SearchText</t>
   </si>

--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="8">
   <si>
     <t>SearchText</t>
   </si>

--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\TODO\Flipkart_E2E_Project\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2422BFD-EED7-458A-B8DE-E77DD3500218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50460191-826E-4F50-8AB8-5B8506C5FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12072" yWindow="2028" windowWidth="10260" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>SearchText</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>shirt</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>fan</t>
   </si>
   <si>
     <t>Pass</t>
@@ -367,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,57 +369,33 @@
     <col min="1" max="1" customWidth="true" width="17.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
         <v>4</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>SearchText</t>
   </si>

--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
   <si>
     <t>SearchText</t>
   </si>

--- a/testData/flipkartTestData.xlsx
+++ b/testData/flipkartTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>SearchText</t>
   </si>
